--- a/Trials n=12(AutoRecovered).xlsx
+++ b/Trials n=12(AutoRecovered).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevyapanda/Desktop/personalprojects/PALS_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279B0DAA-C323-E343-AA80-33F019EB2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549E8C50-1E11-2E44-B202-28CDA0FF38A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="57">
   <si>
     <t>Patient ID</t>
   </si>
@@ -180,12 +181,60 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>1 tailed</t>
+  </si>
+  <si>
+    <t>Always Donates</t>
+  </si>
+  <si>
+    <t>Sometimes Donates</t>
+  </si>
+  <si>
+    <t>Never Donates</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param Score </t>
+  </si>
+  <si>
+    <t>Param_Score</t>
+  </si>
+  <si>
+    <t>Mean Always</t>
+  </si>
+  <si>
+    <t>Mean Sometimes</t>
+  </si>
+  <si>
+    <t>Mean Never</t>
+  </si>
+  <si>
+    <t>P00 Risk Score</t>
+  </si>
+  <si>
+    <t>Parameter Score</t>
+  </si>
+  <si>
+    <t>P01 Risk Score</t>
+  </si>
+  <si>
+    <t>P02 Risk Score</t>
+  </si>
+  <si>
+    <t>Does increasing the number of non-medical (nonsensical or morally-coded) variables produce a linear or nonlinear change in the model’s predicted risk?</t>
+  </si>
+  <si>
+    <t>Is the effect of adding a nonsensical variable (eye color or donation habits) consistent across patients, or does it interact with each patient’s underlying medical configuration?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -208,6 +257,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -239,8 +295,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +361,30 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,13 +408,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1928,10 +2050,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1956,8 +2078,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Variance Ratio</a:t>
+              <a:t>Variance Ratio's</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between +6 Medically Irrelevant Variables and Baseline Risk Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2002,7 +2129,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2010,6 +2137,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$P$16:$P$27</c:f>
@@ -2069,7 +2215,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="82"/>
         <c:overlap val="-27"/>
         <c:axId val="1781719711"/>
         <c:axId val="794651487"/>
@@ -2081,6 +2227,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Patient</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> #</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2133,7 +2339,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2145,6 +2351,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Variance Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2204,9 +2465,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent6"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2310,42 +2569,8 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3890,13 +4115,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>124408</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>91807</xdr:rowOff>
+      <xdr:rowOff>91806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>765060</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140477</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3931,8 +4156,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>124012</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4163,8 +4388,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4679,6 +4904,13 @@
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="Q9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9">
+        <f xml:space="preserve"> _xlfn.T.DIST.RT( ABS( (AVERAGE(J2:J13)) / (_xlfn.STDEV.S(J2:J13)/SQRT(COUNT(J2:J13))) ), COUNT(J2:J13)-1 )</f>
+        <v>1.3983800847219769E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
@@ -5822,7 +6054,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5834,12 +6066,1279 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6.5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B2:B13)</f>
+        <v>6.208333333333333</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(C2:C13)</f>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(E2:E13)</f>
+        <v>7.0083333333333329</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(F2:F13)</f>
+        <v>-0.46666666666666662</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(H2:H13)</f>
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(I2:I13)</f>
+        <v>-0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
+        <v>-0.3</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(B16:B27)</f>
+        <v>7.125</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(C16:C27)</f>
+        <v>-4.1666666666666664E-2</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(E16:E27)</f>
+        <v>8.375</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(F16:F27)</f>
+        <v>-5.8333333333333327E-2</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(H16:H27)</f>
+        <v>2.9500000000000006</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE(I16:I27)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(B30:B41)</f>
+        <v>6.4416666666666664</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(C30:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(E30:E41)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(F30:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(H30:H41)</f>
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGE(I30:I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>6.1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1.4</v>
+      </c>
+      <c r="I9" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>5.8</v>
+      </c>
+      <c r="F10" s="18">
+        <v>-0.3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="19">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>9.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>2.6</v>
+      </c>
+      <c r="I17" s="19">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>9.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>3.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>1.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>3.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>7.3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>3.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>6.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>2.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>8.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K8:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD6663-3B07-214D-ADED-F9743E2B2B70}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trials n=12(AutoRecovered).xlsx
+++ b/Trials n=12(AutoRecovered).xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevyapanda/Desktop/personalprojects/PALS_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549E8C50-1E11-2E44-B202-28CDA0FF38A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91895A32-E3DE-1C4B-836F-A1CD5411FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="63">
   <si>
     <t>Patient ID</t>
   </si>
@@ -229,6 +229,30 @@
   <si>
     <t>Is the effect of adding a nonsensical variable (eye color or donation habits) consistent across patients, or does it interact with each patient’s underlying medical configuration?</t>
   </si>
+  <si>
+    <t>By quantifying whether irrelevant inputs:
+Systematically change predictions → indicates a traceable bias pattern.
+Interact with underlying medical features → reveals latent dependency structures in the model’s internal logic.
+Either outcome adds interpretive clarity:
+Consistent effect → the model’s reasoning pattern can be modeled, understood, and adjusted.
+Inconsistent effect → highlights unstable internal calibration and areas needing transparency or retraining.
+Both outcomes open the box slightly wider by showing how and when the model’s reasoning shifts.</t>
+  </si>
+  <si>
+    <t>P+A2</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Average Paramater Score</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,13 +446,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,20 +1601,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mean </a:t>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Absolute Mean </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR"/>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Δ</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Risk </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Risk Between</a:t>
+              <a:t>Between</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 6 Medically irrelevant Variables &amp; Baseline Risk Score</a:t>
+              <a:t> 6 Medically Irrelevant Variables &amp; Baseline Risk Score</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1928,7 +1965,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> Absolute Change in Risk Score</a:t>
+                  <a:t> Absolute Change in Risk Scoe </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
@@ -2015,12 +2052,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4388,8 +4420,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4402,7 +4434,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6068,8 +6100,8 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6382,6 +6414,9 @@
       <c r="I7" s="19">
         <v>-0.2</v>
       </c>
+      <c r="P7" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
@@ -6411,11 +6446,18 @@
       <c r="I8" s="19">
         <v>-0.1</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="O8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE(C2:C13,F2:F13,I2:I13)</f>
+        <v>-0.42222222222222222</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
@@ -6445,9 +6487,16 @@
       <c r="I9" s="19">
         <v>-0.2</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="O9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE(C16:C27,F16:F27,I16:I27)</f>
+        <v>-2.7777777777777776E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
@@ -6477,9 +6526,16 @@
       <c r="I10" s="19">
         <v>-0.5</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="O10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(F30:F41,I30:I41,C30:C41)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
@@ -6509,9 +6565,9 @@
       <c r="I11" s="19">
         <v>-0.1</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
@@ -6541,9 +6597,9 @@
       <c r="I12" s="19">
         <v>-0.5</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
@@ -6576,6 +6632,12 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
+      <c r="K14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
@@ -6587,6 +6649,10 @@
       <c r="G15" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -6616,8 +6682,12 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
@@ -6645,8 +6715,12 @@
       <c r="I17" s="19">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
@@ -6674,8 +6748,12 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>12</v>
       </c>
@@ -6703,8 +6781,12 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
@@ -6732,8 +6814,12 @@
       <c r="I20" s="20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
@@ -6761,8 +6847,12 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -6790,8 +6880,12 @@
       <c r="I22" s="19">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
@@ -6819,8 +6913,12 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
@@ -6848,8 +6946,12 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
@@ -6878,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>12</v>
       </c>
@@ -6907,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>44</v>
       </c>
@@ -6947,7 +7049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
         <v>12</v>
       </c>
@@ -6976,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
         <v>12</v>
       </c>
@@ -7296,8 +7398,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K8:M12"/>
+    <mergeCell ref="K14:N24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7315,25 +7418,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Trials n=12(AutoRecovered).xlsx
+++ b/Trials n=12(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevyapanda/Desktop/personalprojects/PALS_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91895A32-E3DE-1C4B-836F-A1CD5411FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673A9EE-6197-E14F-9EFC-96E33CF09CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="64">
   <si>
     <t>Patient ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Average Paramater Score</t>
+  </si>
+  <si>
+    <t>see exp 3 analysis</t>
   </si>
 </sst>
 </file>
@@ -6100,8 +6103,8 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:I41"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7409,10 +7412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD6663-3B07-214D-ADED-F9743E2B2B70}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7438,6 +7441,11 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/Trials n=12(AutoRecovered).xlsx
+++ b/Trials n=12(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevyapanda/Desktop/personalprojects/PALS_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673A9EE-6197-E14F-9EFC-96E33CF09CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236D43A-124D-B045-8EED-EB6003837500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>Avg_add1_RiskScore</t>
-  </si>
-  <si>
-    <t>Mean_Delta_Risk-add6</t>
-  </si>
-  <si>
-    <t>Mean_Delta_Risk-add1</t>
   </si>
   <si>
     <t>sd_Baseline</t>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>see exp 3 analysis</t>
+  </si>
+  <si>
+    <t>Abs_Mean_Delta_Risk-add6</t>
+  </si>
+  <si>
+    <t>Abs_Mean_Delta_Risk-add1</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean_Delta_Risk-add6</c:v>
+                  <c:v>Abs_Mean_Delta_Risk-add6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4423,8 +4423,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4437,7 +4437,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4461,27 +4461,27 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>5.5</v>
@@ -4493,7 +4493,7 @@
         <v>5.5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G13" si="0">AVERAGEIF($A:$A, F2, $B:$B)</f>
@@ -4531,12 +4531,12 @@
         <v>0</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R3">
         <f>COUNT(J2:J13)</f>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>5.5</v>
@@ -4607,7 +4607,7 @@
         <v>7.5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R4">
         <f>AVERAGE(J2:J13)</f>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -4666,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R5">
         <f>_xlfn.STDEV.S(J2:J13)</f>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>5.5</v>
@@ -4725,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R6">
         <f>_xlfn.STDEV.S(J2:J13) / SQRT(COUNT(J2:J13))</f>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -4784,7 +4784,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7">
         <f>( AVERAGE(J2:J13) - 0 ) / ( _xlfn.STDEV.S(J2:J13) / SQRT(COUNT(J2:J13)) )</f>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8">
         <v>8.1999999999999993</v>
@@ -4843,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R8">
         <f xml:space="preserve"> _xlfn.T.DIST.2T( ABS( (AVERAGE(J2:J13)) / (_xlfn.STDEV.S(J2:J13)/SQRT(COUNT(J2:J13))) ), COUNT(J2:J13)-1 )</f>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8">
         <v>7.7</v>
@@ -4902,7 +4902,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R9">
         <f xml:space="preserve"> _xlfn.T.DIST.RT( ABS( (AVERAGE(J2:J13)) / (_xlfn.STDEV.S(J2:J13)/SQRT(COUNT(J2:J13))) ), COUNT(J2:J13)-1 )</f>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8">
         <v>8.1999999999999993</v>
@@ -4961,7 +4961,7 @@
         <v>9.5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>3.2</v>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
@@ -5183,24 +5183,24 @@
         <v>2</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="P15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L16" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F2))"),0.075)</f>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>9</v>
@@ -5245,7 +5245,7 @@
         <v>8.5</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F3))"),0.0419999999999998)</f>
@@ -5264,7 +5264,7 @@
         <v>7.1428571428572054</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S17">
         <f>_xlfn.F.TEST(G2:G13,H2:H13)</f>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>8.5</v>
@@ -5285,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F4))"),0.368)</f>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
         <v>9</v>
@@ -5318,10 +5318,10 @@
         <v>7.5</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F5))"),0.375)</f>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>8.5</v>
@@ -5354,7 +5354,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F6))"),0.412)</f>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>10</v>
@@ -5387,7 +5387,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F7))"),0.2)</f>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8">
         <v>6</v>
@@ -5420,7 +5420,7 @@
         <v>6.3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L22" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F8))"),0)</f>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8">
         <v>7.4</v>
@@ -5453,7 +5453,7 @@
         <v>7.2</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L23" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F9))"),0.05)</f>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="8">
         <v>6</v>
@@ -5486,7 +5486,7 @@
         <v>7.5</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L24" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F10))"),0.2)</f>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8">
         <v>7</v>
@@ -5519,7 +5519,7 @@
         <v>7</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L25" s="10">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F11))"),0.25)</f>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8">
         <v>6.2</v>
@@ -5552,7 +5552,7 @@
         <v>7.5</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" s="10" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">IFERROR(__xludf.DUMMYFUNCTION("VAR.S(FILTER($B$2:$B$999, $A$2:$A$999 = F12))"),0.425)</f>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7">
         <v>6</v>
@@ -5585,7 +5585,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="11">
         <v>0.67500000000000004</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="7">
         <v>6</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="7">
         <v>5</v>
@@ -5629,12 +5629,12 @@
         <v>8</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="7">
         <v>6</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="7">
         <v>6</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="8">
         <v>7.5</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="8">
         <v>8</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="8">
         <v>8</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" s="8">
         <v>8</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="8">
         <v>8</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" s="7">
         <v>6</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" s="7">
         <v>6</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B44" s="7">
         <v>6</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" s="7">
         <v>7</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="7">
         <v>6</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3">
         <v>6</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3">
         <v>5</v>
@@ -5898,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H48">
         <f>_xlfn.T.TEST(G2:G13, H2:H13, 2, 1)</f>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3">
         <v>5.5</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B51" s="3">
         <v>5</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B52" s="8">
         <v>4</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" s="8">
         <v>5.5</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" s="8">
         <v>5.5</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="8">
         <v>5.5</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" s="8">
         <v>5</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" s="7">
         <v>8</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="7">
         <v>7</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="7">
         <v>8.5</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="7">
         <v>7</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" s="7">
         <v>6.5</v>
@@ -6118,36 +6118,36 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6.5</v>
@@ -6156,7 +6156,7 @@
         <v>-0.5</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -6165,7 +6165,7 @@
         <v>-0.5</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -6174,27 +6174,27 @@
         <v>0</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="Q2" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -6203,7 +6203,7 @@
         <v>-0.5</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -6212,7 +6212,7 @@
         <v>-0.5</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -6221,7 +6221,7 @@
         <v>-0.5</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3">
         <f>AVERAGE(B2:B13)</f>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -6259,7 +6259,7 @@
         <v>-0.5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -6268,7 +6268,7 @@
         <v>-0.5</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>-0.3</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <f>AVERAGE(B16:B27)</f>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5.5</v>
@@ -6315,7 +6315,7 @@
         <v>-0.5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -6324,7 +6324,7 @@
         <v>-0.5</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5">
         <f>AVERAGE(B30:B41)</f>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -6371,7 +6371,7 @@
         <v>-0.5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -6380,7 +6380,7 @@
         <v>-0.5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -6400,7 +6400,7 @@
         <v>-0.5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6.1</v>
@@ -6409,7 +6409,7 @@
         <v>-0.5</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -6418,12 +6418,12 @@
         <v>-0.2</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6432,7 +6432,7 @@
         <v>-0.5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -6441,7 +6441,7 @@
         <v>-0.3</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0.6</v>
@@ -6450,12 +6450,12 @@
         <v>-0.1</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="O8" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8">
         <f>AVERAGE(C2:C13,F2:F13,I2:I13)</f>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -6473,7 +6473,7 @@
         <v>-0.5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>1.4</v>
@@ -6494,7 +6494,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="O9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <f>AVERAGE(C16:C27,F16:F27,I16:I27)</f>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -6512,7 +6512,7 @@
         <v>-1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>5.8</v>
@@ -6521,7 +6521,7 @@
         <v>-0.3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -6533,7 +6533,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="O10" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10">
         <f>AVERAGE(F30:F41,I30:I41,C30:C41)</f>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -6551,7 +6551,7 @@
         <v>-0.5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>6.7</v>
@@ -6560,7 +6560,7 @@
         <v>-0.5</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -6583,7 +6583,7 @@
         <v>-0.5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6592,7 +6592,7 @@
         <v>-1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>7.5</v>
@@ -6615,7 +6615,7 @@
         <v>-0.5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>7.5</v>
@@ -6624,7 +6624,7 @@
         <v>-0.5</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>1.6</v>
@@ -6636,7 +6636,7 @@
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="K14" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
@@ -6644,13 +6644,13 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>9.5</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>2.6</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>9.5</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6833,7 +6833,7 @@
         <v>-0.5</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -6842,7 +6842,7 @@
         <v>-0.2</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>3.3</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>1.2</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>3.3</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -7003,7 +7003,7 @@
         <v>-0.5</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -7043,18 +7043,18 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>7.3</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <v>3.5</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>9</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>6.5</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>2.5</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>8.5</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -7414,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD6663-3B07-214D-ADED-F9743E2B2B70}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7422,7 +7422,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
